--- a/medicine/Enfance/Régis_Lejonc/Régis_Lejonc.xlsx
+++ b/medicine/Enfance/Régis_Lejonc/Régis_Lejonc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gis_Lejonc</t>
+          <t>Régis_Lejonc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Régis Lejonc, né le 25 avril 1967, est un artiste français, peintre, illustrateur, graphiste et auteur de littérature jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gis_Lejonc</t>
+          <t>Régis_Lejonc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,22 +523,24 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Régis Lejonc vit et travaille à Bordeaux[1]. Après un Bac ES, il intègre Sciences Po[2], et au bout d'une année, intègre des études de gestion. Il peint en autodidacte[3] et fait plusieurs expositions, travaille pour la publicité[2] et l'illustration de presse, au début des années 1990. Il commence ses travaux d'illustration pour des livres jeunesse, au milieu des années 1990, à l'époque où il devient père[2], aux éditions du Rouergue  après sa rencontre avec Olivier Douzou[2],[4],[5], alors directeur de collection à ces éditions. Le premier ouvrage qu'il illustre est publié en 1995, Tour de manège, et le deuxième l'année suivante, Icare, tous deux écrits par Olivier Douzou. Régis Lejonc déclare vingt ans plus tard, en 2015 : « La rencontre avec Olivier Douzou a été déterminante. J’ai découvert mon métier avec ces deux livres[5] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Régis Lejonc vit et travaille à Bordeaux. Après un Bac ES, il intègre Sciences Po, et au bout d'une année, intègre des études de gestion. Il peint en autodidacte et fait plusieurs expositions, travaille pour la publicité et l'illustration de presse, au début des années 1990. Il commence ses travaux d'illustration pour des livres jeunesse, au milieu des années 1990, à l'époque où il devient père, aux éditions du Rouergue  après sa rencontre avec Olivier Douzou alors directeur de collection à ces éditions. Le premier ouvrage qu'il illustre est publié en 1995, Tour de manège, et le deuxième l'année suivante, Icare, tous deux écrits par Olivier Douzou. Régis Lejonc déclare vingt ans plus tard, en 2015 : « La rencontre avec Olivier Douzou a été déterminante. J’ai découvert mon métier avec ces deux livres ».
 Il a illustré plusieurs dizaines d'ouvrages, sur des textes de Rascal, Guillaume Guéraud, Franck Prévot, Olivier Ka ou Marcus Malte.
-Il écrit également ses propres textes, qu'il illustre : Les deux géants en 2001,  Ma voisine est amoureuse en 2003, ou Quelles couleurs !  en 2009, ouvrage pour lequel il indique : « Le temps réel de réalisation du livre a représenté environ 3 mois de travail acharné, mais tout le temps en amont, y compris celui passé à faire d’autres livres ou d’autres travaux d’illustration m’a énormément servi à faire mûrir ce livre qui ne quittait jamais mon esprit[6]. »
-Il est publié par de nombreux éditeurs jeunesse réputés[6], dont les éditions du Rouergue, les éditions Thierry Magnier, Rue du Monde ou Didier jeunesse.
-Il déclare en 2010 : « Toutes les narrations m’intéressent, que ce soit l’écrit, l’illustration ou la bande dessinée[6]. » Il est également scénariste et dessinateur de bandes dessinées. En 2001, aux éditions Delcourt, est publiée l'album Kid Korrigan, sur un scénario de Éric Corbeyran. Il indique : « La bande dessinée est une forme narrative qui découpe le temps du récit. Contrairement à l’illustration qui fige un instant de l’histoire. La BD permet l’étirement du temps ou bien sa précipitation en fonction de ce qu’on raconte[6]. »
-Parallèlement, il travaille comme graphiste en agence de communication, et pour la publicité[2].
-Il devient directeur de collections aux éditions du Rouergue, en 2002, pour la collection « Zig Zag »[2],[7], et aux éditions l’Édune[8], pour la collection «  L'ABéCéDaire »[9],[6],[10], et pour la collection « Empreinte »[11],[12],[6]. Il déclare : « Inventer et diriger une collection de livres correspond davantage à mon regard de lecteur en partageant avec d’autres une expérience éditoriale commune et individuelle à la fois[6]. »
-Il partage un atelier à Bordeaux avec les auteurs et / ou illustrateurs Henri Meunier, Alfred, Olivier Latyk et Richard Guérineau[3], et a publié des collaborations avec les deux premiers.
-Régis Lejonc a été récompensé de plusieurs prix[7], dont le Prix Baobab en 2002, et le Grand Prix de l'illustration en 2010. Pour ce Grand Prix, il indique : « Pour moi plus qu’une récompense, je vois ce prix comme une sorte de preuve d’estime, d’encouragement à persévérer encore, une très belle reconnaissance de mon travail d’illustrateur de la part de spécialistes[6]. »
-En 2015, aux éditions Thierry Magnier, est publiée la première bande dessinée écrite par Thomas Scotto[13], qu'il a dessinée,  Kodhja[14],[15]. Thomas Scotto avait écrit le texte il y a plus de 10 ans, et il avait alors été refusé par l'éditeur[13],[14]. L'album est né d'un travail de quatre années entre les deux auteurs[14]. L'ouvrage est « coup de cœur » 2016 du Centre national de la littérature pour la jeunesse (BnF), pour qui il est «  Une déambulation qui se révèle être un magnifique adieu à l'enfance[16] », et sélectionné par le site de référence jeunesse Ricochet[17], site de l'Institut suisse Jeunesse et Médias.
-En 2018, pour son travail d'illustration, il est par deux fois lauréat du Prix Sorcières[18], dans deux catégories différentes, avec les ouvrages Le jardin du dedans-dehors, sur un texte de Chiara Mezzalama, et  Cœur de bois, sur un texte de Henri Meunier. 
-Cet album Cœur de bois est la cinquième collaboration[19] avec Henri Meunier. Pour Régis Lejonc : « Le sujet profond de ce livre est celui de la résilience : comment se construit-on après avoir subi des atrocités. Il ne s'agit surtout pas de pardon, et évidemment pas d'oubli[19]. » L'ouvrage est également « coup de cœur » 2017 du Centre national de la littérature pour la jeunesse (BnF), qui écrit dans son avis critique : « Dans un langage subtil à décoder, justement parce qu'ils se jouent des codes, les auteurs nous entraînent sur les terres de l'intime. L'illustration est puissante, sombre[20] ». Selon l'avis critique du site de référence Ricochet, « Malgré les maltraitances subies, [l'héroïne] a réussi à pardonner l'impardonnable et à construire sa vie. Un magnifique récit, à l'écriture soignée et aux illustrations hyperréalistes, sur la résilience, l'amour et le pardon[21]. » En 2022, ils signent Le berger et l'assassin, qui se déroule dans les montagnes, en Haute-Savoie. Pour La Revue des livres pour enfants : « Dans la lignée des grands récits alpins, le duo d'auteurs imagine une histoire qui n'aurait pas pu naître ailleurs. [...] Le romanesque explose à chaque page de ce texte à l'âpreté philosophique, construit autour d'une situation historique faisant inévitablement écho à l'actualité. La montagne y apparaît alors comme lieu de passage et de rencontre, comme frontière métaphysique à franchir, révélant in fine la profonde humanité qui relie en un même souffle les assassins et les bergers[22]. »
-En 2020, il est à nouveau récompensé par le Prix Sorcières[23] dans la Catégorie Carrément Sorcières non-fiction, pour l'ouvrage documentaire Dans tous les sens, écrit par Philippe Nessmann, et qu'il a illustré, avec Célestin.
-Après avoir illustré en 2018 l'album  Le jardin du dedans-dehors, sur un texte de Chiara Mezzalama, ils collaborent à nouveau ensemble en 2022 pour l'ouvrage La robe de soie , qui, selon  La Revue des livres pour enfants est : « toujours inspiré des souvenirs de famille de l'autrice. [...] Bien écrit, émouvant, fort et âpre, le récit évoque les désastres de la guerre, ceux qui partent et ceux qui restent [...] Entre album et BD, le trait délicat et élégant de l'illustrateur épouse, sans surcharge ni redondance, les méandres de cette histoire complexe, dont toutes les clés ne sont pas données[24]. »
+Il écrit également ses propres textes, qu'il illustre : Les deux géants en 2001,  Ma voisine est amoureuse en 2003, ou Quelles couleurs !  en 2009, ouvrage pour lequel il indique : « Le temps réel de réalisation du livre a représenté environ 3 mois de travail acharné, mais tout le temps en amont, y compris celui passé à faire d’autres livres ou d’autres travaux d’illustration m’a énormément servi à faire mûrir ce livre qui ne quittait jamais mon esprit. »
+Il est publié par de nombreux éditeurs jeunesse réputés, dont les éditions du Rouergue, les éditions Thierry Magnier, Rue du Monde ou Didier jeunesse.
+Il déclare en 2010 : « Toutes les narrations m’intéressent, que ce soit l’écrit, l’illustration ou la bande dessinée. » Il est également scénariste et dessinateur de bandes dessinées. En 2001, aux éditions Delcourt, est publiée l'album Kid Korrigan, sur un scénario de Éric Corbeyran. Il indique : « La bande dessinée est une forme narrative qui découpe le temps du récit. Contrairement à l’illustration qui fige un instant de l’histoire. La BD permet l’étirement du temps ou bien sa précipitation en fonction de ce qu’on raconte. »
+Parallèlement, il travaille comme graphiste en agence de communication, et pour la publicité.
+Il devient directeur de collections aux éditions du Rouergue, en 2002, pour la collection « Zig Zag » et aux éditions l’Édune, pour la collection «  L'ABéCéDaire » et pour la collection « Empreinte ». Il déclare : « Inventer et diriger une collection de livres correspond davantage à mon regard de lecteur en partageant avec d’autres une expérience éditoriale commune et individuelle à la fois. »
+Il partage un atelier à Bordeaux avec les auteurs et / ou illustrateurs Henri Meunier, Alfred, Olivier Latyk et Richard Guérineau, et a publié des collaborations avec les deux premiers.
+Régis Lejonc a été récompensé de plusieurs prix, dont le Prix Baobab en 2002, et le Grand Prix de l'illustration en 2010. Pour ce Grand Prix, il indique : « Pour moi plus qu’une récompense, je vois ce prix comme une sorte de preuve d’estime, d’encouragement à persévérer encore, une très belle reconnaissance de mon travail d’illustrateur de la part de spécialistes. »
+En 2015, aux éditions Thierry Magnier, est publiée la première bande dessinée écrite par Thomas Scotto, qu'il a dessinée,  Kodhja,. Thomas Scotto avait écrit le texte il y a plus de 10 ans, et il avait alors été refusé par l'éditeur,. L'album est né d'un travail de quatre années entre les deux auteurs. L'ouvrage est « coup de cœur » 2016 du Centre national de la littérature pour la jeunesse (BnF), pour qui il est «  Une déambulation qui se révèle être un magnifique adieu à l'enfance », et sélectionné par le site de référence jeunesse Ricochet, site de l'Institut suisse Jeunesse et Médias.
+En 2018, pour son travail d'illustration, il est par deux fois lauréat du Prix Sorcières, dans deux catégories différentes, avec les ouvrages Le jardin du dedans-dehors, sur un texte de Chiara Mezzalama, et  Cœur de bois, sur un texte de Henri Meunier. 
+Cet album Cœur de bois est la cinquième collaboration avec Henri Meunier. Pour Régis Lejonc : « Le sujet profond de ce livre est celui de la résilience : comment se construit-on après avoir subi des atrocités. Il ne s'agit surtout pas de pardon, et évidemment pas d'oubli. » L'ouvrage est également « coup de cœur » 2017 du Centre national de la littérature pour la jeunesse (BnF), qui écrit dans son avis critique : « Dans un langage subtil à décoder, justement parce qu'ils se jouent des codes, les auteurs nous entraînent sur les terres de l'intime. L'illustration est puissante, sombre ». Selon l'avis critique du site de référence Ricochet, « Malgré les maltraitances subies, [l'héroïne] a réussi à pardonner l'impardonnable et à construire sa vie. Un magnifique récit, à l'écriture soignée et aux illustrations hyperréalistes, sur la résilience, l'amour et le pardon. » En 2022, ils signent Le berger et l'assassin, qui se déroule dans les montagnes, en Haute-Savoie. Pour La Revue des livres pour enfants : « Dans la lignée des grands récits alpins, le duo d'auteurs imagine une histoire qui n'aurait pas pu naître ailleurs. [...] Le romanesque explose à chaque page de ce texte à l'âpreté philosophique, construit autour d'une situation historique faisant inévitablement écho à l'actualité. La montagne y apparaît alors comme lieu de passage et de rencontre, comme frontière métaphysique à franchir, révélant in fine la profonde humanité qui relie en un même souffle les assassins et les bergers. »
+En 2020, il est à nouveau récompensé par le Prix Sorcières dans la Catégorie Carrément Sorcières non-fiction, pour l'ouvrage documentaire Dans tous les sens, écrit par Philippe Nessmann, et qu'il a illustré, avec Célestin.
+Après avoir illustré en 2018 l'album  Le jardin du dedans-dehors, sur un texte de Chiara Mezzalama, ils collaborent à nouveau ensemble en 2022 pour l'ouvrage La robe de soie , qui, selon  La Revue des livres pour enfants est : « toujours inspiré des souvenirs de famille de l'autrice. [...] Bien écrit, émouvant, fort et âpre, le récit évoque les désastres de la guerre, ceux qui partent et ceux qui restent [...] Entre album et BD, le trait délicat et élégant de l'illustrateur épouse, sans surcharge ni redondance, les méandres de cette histoire complexe, dont toutes les clés ne sont pas données. »
 </t>
         </is>
       </c>
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9gis_Lejonc</t>
+          <t>Régis_Lejonc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,8 +571,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Années 1990 et 2000
-Tour de manège, texte d'Olivier Douzou, illustrations de Régis Lejonc, éditions du Rouergue, 1995 Prix Millepage 1995
+          <t>Années 1990 et 2000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tour de manège, texte d'Olivier Douzou, illustrations de Régis Lejonc, éditions du Rouergue, 1995 Prix Millepage 1995
 Icare,  texte d'Olivier Douzou, illustrations de Régis Lejonc, éditions du Rouergue, 1996
  Ange, texte de Annie Agopian, ill., Régis Lejonc, Rouergue, 1998
 Paroles de taulards, scénarios de Éric Corbeyran, dessins de Étienne Davodeau, Régis Lejonc, Jean-Michel Lemaire et al., Delcourt, 1999 Prix Tournesol 2000
@@ -571,8 +590,8 @@
 Kontrol 42, texte de Régis Lejonc, illustrations de Thierry Murat, éd. du Rouergue, 2002
 Top model, coréalisé avec Monsieur Z., éd. du Rouergue, 2002
  Je suis là, René Gouichoux, Régis Lejonc, Casterman, 2002
-Hélena, Ivan et les oies, texte de Muriel Bloch, ill. Régis Lejonc, éd. Didier jeunesse, 2002 « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[25]
-L’arbre qui pense, texte de Raymond Queneau, ill. Régis Lejonc, éd. Rue du Monde, 2002 « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[25]
+Hélena, Ivan et les oies, texte de Muriel Bloch, ill. Régis Lejonc, éd. Didier jeunesse, 2002 « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)
+L’arbre qui pense, texte de Raymond Queneau, ill. Régis Lejonc, éd. Rue du Monde, 2002 « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)
  Le cri, Henri Meunier, Régis Lejonc, Rouergue, 2003
  Ma voisine est amoureuse, éditions Thierry Magnier, 2003
 La môme aux oiseaux, texte de Henri Meunier, ill. Régis Lejonc, Rouergue, 2003 Prix Octogone 2003
@@ -598,15 +617,49 @@
  Les pensées sont des fleurs comme les autres, texte de Franck Prévot, ill. Régis Lejonc, éd. L’édune, 2008
 Elvis, texte de Régis Lejonc, d'après une idée de Christophe Alline, illustrations de Christophe Alline, Didier Jeunesse, 2008
 Même pas peur, éd. La maison est en carton, 2009
-Quelles couleurs ![6], éditions Thierry Magnier, 2009 Grand Prix de l'illustration 2010
+Quelles couleurs !, éditions Thierry Magnier, 2009 Grand Prix de l'illustration 2010
 Les Indiens, texte de Franck Prévot, dessins de Régis Lejonc, Éd. l'Édune, 2009
 série Bonzome, scénario de Jeanléon, illustration et conception graphique de Régis Lejonc, Ankama jeunesse, 2009
 Les goûts et les couleurs
 L'oeuf mystérieux
 Les enfants de la balle
- Un an, un jour, histoire Régis Lejonc, images Carole Chaix, photographies Aimery Chemin, L'Atelier du poisson soluble, 2009
-Années 2010
- L'arbre et l'enfant, texte de Jean-Luc Coudray, illustrations de Régis Lejonc, éd. L'édune, 2010
+ Un an, un jour, histoire Régis Lejonc, images Carole Chaix, photographies Aimery Chemin, L'Atelier du poisson soluble, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Régis_Lejonc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gis_Lejonc</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L'arbre et l'enfant, texte de Jean-Luc Coudray, illustrations de Régis Lejonc, éd. L'édune, 2010
  Le golem, texte d’Anne Jonas, ill. Régis Lejonc, éd. Nathan, 2010
 Le Petit Chaperon rouge ou La petite fille aux habits de fer-blanc : un conte, écrit par Jean-Jacques Fdida, illustré par Régis Lejonc, préface de Bernadette Bricout, graphisme de Célestin, Didier jeunesse, 2010
 La carotte aux étoiles, scénario de Régis Lejonc, dessin de Riff Reb's ; d'après une histoire originale de Thierry Murat, Éditions de la Gouttière, 2010
@@ -622,16 +675,16 @@
 Pochoirs Kawaï : l'atelier Gautier-Languereau,  Régis Lejonc, Gautier-Languereau, 2013
 Loup ?, textes et illustrations collectifs, éd. Mange-Livres, 2013
 La promesse de l’ogre, texte de Rascal, ill. Régis Lejonc, éd. L’école des Loisirs, 2015
-Lumières : l'"Encyclopédie" revisitée, 1713-2013[26], textes de Franck Prévot, illustrations de onze illustrateurs dont Martin Jarrie, Régis Lejonc, Charles Dutertre, Éd. l'Édune, 2013 - Publié pour le tricentenaire de la naissance de Denis Diderot -  Fait l'objet d'une exposition au même nom.
-Kodhja[13],[15],[16],[17], scénario de Thomas Scotto, dessins de Régis Lejonc, éd. Thierry Magnier, 2015
+Lumières : l'"Encyclopédie" revisitée, 1713-2013, textes de Franck Prévot, illustrations de onze illustrateurs dont Martin Jarrie, Régis Lejonc, Charles Dutertre, Éd. l'Édune, 2013 - Publié pour le tricentenaire de la naissance de Denis Diderot -  Fait l'objet d'une exposition au même nom.
+Kodhja scénario de Thomas Scotto, dessins de Régis Lejonc, éd. Thierry Magnier, 2015
 Peter Pan de James Matthew Barrie, illustré par Régis Lejonc, traduit de l'anglais par Michel Laporte, Gautier-Languereau, 2015
  La poupée de Ting-Ting, texte de Ghislaine Roman, illustrations de Régis Lejonc, Seuil jeunesse, 2015
 L’ogre Babborco et autres contes, texte de Muriel Bloch, ill. Régis Lejonc, éd. Seuil Jeunesse, 2015
  Bagdan et la louve aux yeux d'or, Ghislaine Roman, Régis Lejonc, Seuil jeunesse, 2016
  Le lac des Cygnes, Piotr Tchaïkovski, Elodie Fondacci, ill. Régis Lejonc, Gautier-Languereau, 2016 - album accompagné d'un CD
 Qu’ils y restent, texte de Régis Lejonc, avec Pascal Mériaux, illustrations de Riff Reb's, Les éditions de la Gouttière, 2016
-Cœur de bois[19],[20],[21], texte de Henri Meunier, illustrations Régis Lejonc, Notari, 2016 Prix Sorcières 2018[18], catégorie Carrément Sorcières - Fiction
-Le jardin du dedans-dehors, texte de Chiara Mezzalama , illustrations Régis Lejonc, Les Éditions des Éléphants, 2017 Prix Sorcières 2018[18], catégorie Carrément Beau - Maxi ; Prix Saint-Exupéry 2018[27]
+Cœur de bois texte de Henri Meunier, illustrations Régis Lejonc, Notari, 2016 Prix Sorcières 2018, catégorie Carrément Sorcières - Fiction
+Le jardin du dedans-dehors, texte de Chiara Mezzalama , illustrations Régis Lejonc, Les Éditions des Éléphants, 2017 Prix Sorcières 2018, catégorie Carrément Beau - Maxi ; Prix Saint-Exupéry 2018
 Tu seras ma princesse, texte de Marcus Malte, ill. Régis Lejonc, Sarbacane, 2017
 Un homme chez les microbes : scherzo, Maurice Renard, illustrations de Régis Lejonc, préface de Christophe Claro, l'Arbre vengeur, 2017
  Oddvin, le prince qui vivait dans deux mondes, texte Franck Prévot, illustrations Régis Lejonc, HongFei Cultures, 2018
@@ -639,9 +692,43 @@
 Les larmes des avalombres, Alexandre Chardin, illustrations de Régis Lejonc, Magnard jeunesse, 2018
 Orphée au enfers, Clémentine Beauvais, illustrations de Régis Lejonc, Nathan, 2019
  Moins bête, texte de Sébastien Joanniez, illustrations de Régis Lejonc, Pastel, 2019
-Dans tous les sens, Philippe Nessmann, Régis Lejonc, Célestin, Seuil jeunesse, 2019 Prix Sorcières 2020[23]
-Années 2020
- Tout ou presque sur les bisous volants, texte Annie Agopian, illustrations Régis Lejonc, musiques Bertrand Bonnefon, Thierry Cestac, Stéphane Erny ; Annie Agopian, voix, éd. Benjamins media, 2020 - livre-CD
+Dans tous les sens, Philippe Nessmann, Régis Lejonc, Célestin, Seuil jeunesse, 2019 Prix Sorcières 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Régis_Lejonc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gis_Lejonc</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Années 2020</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tout ou presque sur les bisous volants, texte Annie Agopian, illustrations Régis Lejonc, musiques Bertrand Bonnefon, Thierry Cestac, Stéphane Erny ; Annie Agopian, voix, éd. Benjamins media, 2020 - livre-CD
 Je n'ai jamais dit, texte Didier Jean et Zad, illustrations Régis Lejonc, Utopique, 2020
 Fechamos, texte Gilles Baum, ill. Régis Lejonc, Éditions des Éléphants, 2020
  Comme à la maison : journal graphique d'un illustrateur confiné, Régis Lejonc, éd. Régis Lejonc, 2020
@@ -650,76 +737,10 @@
 Les deux géants, Martin Jarrie et Régis Lejonc, éditions HongFei, 2021
 Direction Étoile, Francis de Miomandre, préface de Bernard Quiriny, illustrations de Régis Lejonc, l'Arbre vengeur, 2021
 Ça ne tourne pas rond, texte et ill. Régis Lejonc, Nathan, 2021
-Coassine[28], Muriel Bloch et Régis Lejonc, Magnard jeunesse, 2022
-Pitsi-Mitsi : du temps où les animaux parlaient[29], texte de Marie-Aude Murail illustré par Régis Lejonc, l'École des loisirs, 2022
-La robe de soie[24], Chiara Mezzalama et Régis Lejonc, les Éditions des Éléphants, 2022
- Le berger et l'assassin[22], Henri Meunier et Régis Lejonc, Little urban, 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>R%C3%A9gis_Lejonc</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9gis_Lejonc</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Directeur de collection</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Aux éditions du Rouergue
-Collection « Zig Zag »[2],[7], depuis 2002
-Aux éditions l’Édune
-Collection « Empreinte »[11],[12],[6], en 2009 et 2010
-Collection «  L'ABéCéDaire »[9],[10], une collection de 20 imagiers[30],[6], conçue et dirigée par Régis Lejonc, en 2007
-Un ouvrage pour chaque lettre de l'alphabet, ou parfois deux, illustré chacun par un illustrateur, dont Rascal, Alfred, Martin Jarrie, Marc Boutavant, Frédérique Bertrand ou Olivier Tallec. Régis Lejonc a réalisé  U comme 1, V comme 20.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>R%C3%A9gis_Lejonc</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9gis_Lejonc</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Quelques expositions</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2013 : « Lumières : l'"Encyclopédie" revisitée, 1713-2013 », d'après l'ouvrage éponyme, textes de Franck Prévot, illustrations de onze illustrateurs dont Martin Jarrie, Régis Lejonc, Charles Dutertre, Éd. l'Édune, 2013 (Publié pour le tricentenaire de la naissance de Denis Diderot), Galerie Michel Lagarde.
-2015 : Exposition personnelle pour les 20 ans de ses travaux d'illustration[5], Escale du livre, Bordeaux</t>
+Coassine, Muriel Bloch et Régis Lejonc, Magnard jeunesse, 2022
+Pitsi-Mitsi : du temps où les animaux parlaient, texte de Marie-Aude Murail illustré par Régis Lejonc, l'École des loisirs, 2022
+La robe de soie, Chiara Mezzalama et Régis Lejonc, les Éditions des Éléphants, 2022
+ Le berger et l'assassin, Henri Meunier et Régis Lejonc, Little urban, 2022</t>
         </is>
       </c>
     </row>
@@ -729,7 +750,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R%C3%A9gis_Lejonc</t>
+          <t>Régis_Lejonc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -744,28 +765,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Prix et distinctions</t>
+          <t>Directeur de collection</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1995 : Prix Millepage[8],[2] pour Tour de manège, texte de Olivier Douzou, qu'il a illustré
-2000 : Prix Tournesol pour Paroles de taulards, scénarios de Éric Corbeyran, plusieurs dessinateurs
-2002 : Prix Baobab[2] (meilleur album du Salon du livre et de la presse jeunesse de Montreuil (Seine-Saint-Denis)) pour Au bout du compte, coréalisé avec Martin Jarrie
-2002 : Prix Tam-Tam[7],[31] pour Marabout d’ficelle, texte de Sébastien Joanniez, qu'il a illustré
-2003 : Prix Octogone[8],[7] pour La môme aux oiseaux, texte de Henri Meunier, qu'il a illustré
-2004 : Prix de l'Académie Charles-Cros[7] pour L'oiseau de vérité : un conte musical, texte de Jean-Jacques Fdida, mis en musique par Jean-Marie Machado, qu'il a illustré
-2007 :  Sélection Deutscher Jugendliteraturpreis[32] , catégorie Livre pour enfant, pour Marabout d’ficelle, texte de Sébastien Joanniez, qu'il a illustré
-2008 : Prix Chrétien de Troyes[33] pour Le phare des sirènes, texte de Rascal, qu'il a illustré
-2010 : Grand Prix de l'illustration[6] pour Quelles couleurs !
-2018 : Prix Saint-Exupéry[27] pour Le jardin du dedans-dehors, texte de Chiara Mezzalama, qu'il a illustré
-2018 : Prix Sorcières[18] catégorie Carrément Beau - Maxi pour Le jardin du dedans-dehors, texte de Chiara Mezzalama, qu'il a illustré
-2018 : Prix Sorcières[18] catégorie Carrément Sorcières - Fiction, pour Cœur de bois, texte de Henri Meunier, qu'il a illustré
-2020 : Prix Sorcières[23] catégorie Carrément Sorcières - Non Fiction, pour Dans tous les sens, texte de Philippe Nessmann, qu'il a illustré, avec Célestin
-2021 :  Mention Prix Libbylit[34] délivré par l' IBBY, catégorie Album, pour Fechamos, avec Gilles Baum
-2022 :  "Mention" Prix BolognaRagazzi, catégorie Fiction[35], Foire du livre de jeunesse de Bologne  pour Fechamos
-Neuf de ses ouvrages illustrés font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[25] dont L'arbre qui pense, sur un texte de Raymond Queneau (2002) et Hélena, Ivan et les oies, sur un texte de Muriel Bloch (2002).
-</t>
+          <t>Aux éditions du Rouergue</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Collection « Zig Zag » depuis 2002</t>
         </is>
       </c>
     </row>
@@ -775,7 +786,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R%C3%A9gis_Lejonc</t>
+          <t>Régis_Lejonc</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -790,13 +801,134 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Directeur de collection</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Aux éditions l’Édune</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Collection « Empreinte » en 2009 et 2010
+Collection «  L'ABéCéDaire » une collection de 20 imagiers conçue et dirigée par Régis Lejonc, en 2007
+Un ouvrage pour chaque lettre de l'alphabet, ou parfois deux, illustré chacun par un illustrateur, dont Rascal, Alfred, Martin Jarrie, Marc Boutavant, Frédérique Bertrand ou Olivier Tallec. Régis Lejonc a réalisé  U comme 1, V comme 20.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Régis_Lejonc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gis_Lejonc</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Quelques expositions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2013 : « Lumières : l'"Encyclopédie" revisitée, 1713-2013 », d'après l'ouvrage éponyme, textes de Franck Prévot, illustrations de onze illustrateurs dont Martin Jarrie, Régis Lejonc, Charles Dutertre, Éd. l'Édune, 2013 (Publié pour le tricentenaire de la naissance de Denis Diderot), Galerie Michel Lagarde.
+2015 : Exposition personnelle pour les 20 ans de ses travaux d'illustration, Escale du livre, Bordeaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Régis_Lejonc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gis_Lejonc</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1995 : Prix Millepage, pour Tour de manège, texte de Olivier Douzou, qu'il a illustré
+2000 : Prix Tournesol pour Paroles de taulards, scénarios de Éric Corbeyran, plusieurs dessinateurs
+2002 : Prix Baobab (meilleur album du Salon du livre et de la presse jeunesse de Montreuil (Seine-Saint-Denis)) pour Au bout du compte, coréalisé avec Martin Jarrie
+2002 : Prix Tam-Tam, pour Marabout d’ficelle, texte de Sébastien Joanniez, qu'il a illustré
+2003 : Prix Octogone, pour La môme aux oiseaux, texte de Henri Meunier, qu'il a illustré
+2004 : Prix de l'Académie Charles-Cros pour L'oiseau de vérité : un conte musical, texte de Jean-Jacques Fdida, mis en musique par Jean-Marie Machado, qu'il a illustré
+2007 :  Sélection Deutscher Jugendliteraturpreis , catégorie Livre pour enfant, pour Marabout d’ficelle, texte de Sébastien Joanniez, qu'il a illustré
+2008 : Prix Chrétien de Troyes pour Le phare des sirènes, texte de Rascal, qu'il a illustré
+2010 : Grand Prix de l'illustration pour Quelles couleurs !
+2018 : Prix Saint-Exupéry pour Le jardin du dedans-dehors, texte de Chiara Mezzalama, qu'il a illustré
+2018 : Prix Sorcières catégorie Carrément Beau - Maxi pour Le jardin du dedans-dehors, texte de Chiara Mezzalama, qu'il a illustré
+2018 : Prix Sorcières catégorie Carrément Sorcières - Fiction, pour Cœur de bois, texte de Henri Meunier, qu'il a illustré
+2020 : Prix Sorcières catégorie Carrément Sorcières - Non Fiction, pour Dans tous les sens, texte de Philippe Nessmann, qu'il a illustré, avec Célestin
+2021 :  Mention Prix Libbylit délivré par l' IBBY, catégorie Album, pour Fechamos, avec Gilles Baum
+2022 :  "Mention" Prix BolognaRagazzi, catégorie Fiction, Foire du livre de jeunesse de Bologne  pour Fechamos
+Neuf de ses ouvrages illustrés font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) dont L'arbre qui pense, sur un texte de Raymond Queneau (2002) et Hélena, Ivan et les oies, sur un texte de Muriel Bloch (2002).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Régis_Lejonc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gis_Lejonc</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Adaptation de son œuvre</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>En spectacle
-La mélopée du phare : le conte du dernier gardien[36], d'après l'ouvrage Le phare des sirènes, texte de Rascal, illustrations Régis Lejonc, publié en 2007 ; conception Fabien Bondil ; adaptation Brice Berthoud ; musique Gabriel Fabing ; scénographie Brice Berthoud ; marionnettes Yseult Welschinger ; coproduction Compagnie la Valise, l'Illiade à Illkirch, l'Hectare de Vendôme... et al. ; avec Fabien Bondil ; création 2013</t>
+La mélopée du phare : le conte du dernier gardien, d'après l'ouvrage Le phare des sirènes, texte de Rascal, illustrations Régis Lejonc, publié en 2007 ; conception Fabien Bondil ; adaptation Brice Berthoud ; musique Gabriel Fabing ; scénographie Brice Berthoud ; marionnettes Yseult Welschinger ; coproduction Compagnie la Valise, l'Illiade à Illkirch, l'Hectare de Vendôme... et al. ; avec Fabien Bondil ; création 2013</t>
         </is>
       </c>
     </row>
